--- a/Desktop/Amir/mycpd/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/Mycpd Record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AEDF74-9C86-4C9F-921A-5B4F48134B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3892BF6-5D0A-4FFD-AAEF-89336EBD2D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,6 +438,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,6 +575,55 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -581,66 +642,56 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,8 +1011,8 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,42 +1027,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1024,362 +1075,362 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" s="46" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" s="31" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="49">
         <v>45323</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="50">
         <v>45351</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="48">
         <v>2</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="45" t="s">
+      <c r="L3" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="55">
         <v>45323</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="56">
         <v>45351</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="57">
         <v>2</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="60" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19">
-        <v>45342</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
+      <c r="C5" s="55">
+        <v>45345</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="57">
         <v>1</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="22" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="38">
         <v>45343</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34">
         <v>1</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="22" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="33">
         <v>45359</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34">
         <v>1</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="22" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="33">
         <v>45331</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34">
         <v>1</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="33">
         <v>45358</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="34"/>
+      <c r="E9" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="34">
         <v>1</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="36" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="22" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="33">
         <v>45352</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="34"/>
+      <c r="E10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34">
         <v>1</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="33">
         <v>45359</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="34"/>
+      <c r="E11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34">
         <v>1</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="49" t="s">
+      <c r="L11" s="40" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="22" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="57">
         <v>10</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L12" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1559,39 +1610,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="36" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:12" s="30" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="26">
         <v>45336</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="F18" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="25">
         <v>1</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="29" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Desktop/Amir/mycpd/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3892BF6-5D0A-4FFD-AAEF-89336EBD2D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C23F63-DB5F-4155-BF7F-4025F0AD9674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +450,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,25 +562,7 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -606,17 +594,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -624,6 +603,57 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,56 +672,29 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,8 +1014,8 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,42 +1030,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="49" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1075,362 +1078,362 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-    </row>
-    <row r="3" spans="1:12" s="31" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+    </row>
+    <row r="3" spans="1:12" s="25" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="34">
         <v>45323</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="35">
         <v>45351</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="33">
         <v>2</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="22" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:12" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="40">
         <v>45323</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="41">
         <v>45351</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="57">
+      <c r="J4" s="42">
         <v>2</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="22" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:12" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="40">
         <v>45345</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="42">
         <v>1</v>
       </c>
-      <c r="K5" s="61" t="s">
+      <c r="K5" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="22" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:12" s="17" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="61">
         <v>45343</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34">
+      <c r="I6" s="42"/>
+      <c r="J6" s="42">
         <v>1</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="22" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="40">
         <v>45359</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42">
         <v>1</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:12" s="17" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="40">
         <v>45331</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42">
         <v>1</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:12" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="40">
         <v>45358</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="42">
         <v>1</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="22" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:12" s="17" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>45352</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34">
+      <c r="I10" s="28"/>
+      <c r="J10" s="28">
         <v>1</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="22" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="27">
         <v>45359</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28">
         <v>1</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="22" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+    <row r="12" spans="1:12" s="17" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="42"/>
+      <c r="C12" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="57">
+      <c r="J12" s="42">
         <v>10</v>
       </c>
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="48" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1574,75 +1577,75 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="22" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:12" s="17" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="57">
         <v>45314</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="56">
         <v>4</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="30" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+    <row r="18" spans="1:12" s="24" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="20">
         <v>45336</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="19">
         <v>1</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="23" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Desktop/Amir/mycpd/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C23F63-DB5F-4155-BF7F-4025F0AD9674}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC61A2E-6CA9-4E9D-AC71-395009E4D923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -428,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,12 +438,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -537,30 +531,6 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,75 +555,81 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -671,30 +647,6 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,8 +966,8 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,42 +982,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="52"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1078,269 +1030,269 @@
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-    </row>
-    <row r="3" spans="1:12" s="25" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="20">
         <v>45323</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="21">
         <v>45351</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="19">
         <v>2</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="26">
         <v>45323</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="27">
         <v>45351</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="28">
         <v>2</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="45" t="s">
+      <c r="L4" s="31" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="26">
         <v>45345</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="17" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="41">
         <v>45343</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42">
+      <c r="I6" s="28"/>
+      <c r="J6" s="28">
         <v>1</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="26">
         <v>45359</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28">
         <v>1</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="17" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:12" s="9" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="26">
         <v>45331</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42">
+      <c r="I8" s="28"/>
+      <c r="J8" s="28">
         <v>1</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="45" t="s">
+      <c r="L8" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="26">
         <v>45358</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="28">
         <v>1</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="45" t="s">
+      <c r="L9" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="17" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:12" s="9" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>45352</v>
       </c>
       <c r="D10" s="28"/>
@@ -1350,7 +1302,7 @@
       <c r="F10" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="42" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="28" t="s">
@@ -1360,21 +1312,21 @@
       <c r="J10" s="28">
         <v>1</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:12" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>45359</v>
       </c>
       <c r="D11" s="28"/>
@@ -1384,7 +1336,7 @@
       <c r="F11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="28" t="s">
@@ -1394,258 +1346,258 @@
       <c r="J11" s="28">
         <v>1</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="17" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:12" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="40" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="28">
         <v>10</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="26">
         <v>45345</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11">
+      <c r="I13" s="28"/>
+      <c r="J13" s="28">
         <v>1</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="26">
         <v>45338</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="28">
         <v>2</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="31" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="26">
         <v>45351</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="28">
         <v>2</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="31" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="26">
         <v>45373</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="17" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="37">
         <v>45314</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="36">
         <v>4</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="24" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:12" s="16" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="12">
         <v>45336</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="11">
         <v>1</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="15" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Desktop/Amir/mycpd/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC61A2E-6CA9-4E9D-AC71-395009E4D923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBCFB6-2BB7-4125-9D17-2CAC95D6C70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
   <si>
     <t>TARIKH</t>
   </si>
@@ -362,6 +362,121 @@
   <si>
     <t>27 Mac 2024</t>
   </si>
+  <si>
+    <t>FB Live: Jangan Sakit Perut Ketika Ramadhan</t>
+  </si>
+  <si>
+    <t>Bengkel Latihan Teori untuk Verifikasi Alat Radas Makmal</t>
+  </si>
+  <si>
+    <t>Dewan Anggerik NPRA</t>
+  </si>
+  <si>
+    <t>Bengkel Latihan Teori untuk Verifikasi Alat Radas Makmal Tarikh: 2 Julai 2024 (Selasa) Masa: 9.00 am - 12.30 pm Tempat: Dewan Anggerik NPRA Penceramah: 1. Wayne Wong Guan Wei 2. Luqmanul Hakim Khudzri</t>
+  </si>
+  <si>
+    <t>9.00AM</t>
+  </si>
+  <si>
+    <t>NPRA</t>
+  </si>
+  <si>
+    <t>Kelab Jurnal NPRA Bil 02/2024 - Overview Of Mental Health And Mental Illness &amp; Exploring The World Of Geriatric Care</t>
+  </si>
+  <si>
+    <t>Tarikh : 29 Februari 2024 (Khamis)
+Masa : 3.00 petang
+Tempat : Secara maya
+Pembentang : Puan SITI FATIMAH IDRIS
+Tajuk : Overview of Mental Health and Mental Illness
+Pembentang : Puan SHARIFAH NOR SAZLIN BINTI SYED ZAINUDDIN
+Tajuk : Exploring The World Of Geriatric Care</t>
+  </si>
+  <si>
+    <t>3.00PM</t>
+  </si>
+  <si>
+    <t>4.00PM</t>
+  </si>
+  <si>
+    <t>Kuiz JF-Think@Pro Siri 1/2024 - Rawatan Terapi Gantian Methadone Siri 1</t>
+  </si>
+  <si>
+    <t>10.30PM</t>
+  </si>
+  <si>
+    <t>11.00PM</t>
+  </si>
+  <si>
+    <t>Program Perkhidmatan Farmasi, Kementerian Kesihatan Malaysia</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Taklimat Pengenalan Dan Kesedaran EKSA Siri 01/2024 - Pengenalan Dan Kesedaran Ekosistem Kondusif Sektor Awam (EKSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKLIMAT PENGENALAN DAN KESEDARAN EKSA SIRI 01/2024
+Tarikh: 21 Mac 2024
+Masa: 2.30 petang - 3.30 petang
+Tempat: Secara maya
+Kategori CPD: A4 (1 mata)
+Tajuk: Pengenalan dan Kesedaran Ekosistem Kondusif Sektor Awam (EKSA)
+Pembentang: 1. Pn. Sharifah Arina Syed Mhd Hanafiah 
+ 2. En. Mohammad Aizat Bin Yusof </t>
+  </si>
+  <si>
+    <t>Jawatan Kuasa Kecil Latihan EKSA Zon NPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ User Training ICP-MS Analysis : ICP-MS Instruments 8900 Using Oxygen Gas Mode</t>
+  </si>
+  <si>
+    <t>Agilent</t>
+  </si>
+  <si>
+    <t>Makmal Unit Analisis Tradisional dan Kosmetik (HMT), Blok I</t>
+  </si>
+  <si>
+    <t>USER TRAINING ICP-MS ANALYSIS : ICP-MS INSTRUMENTS 8900 USING OXYGEN GAS MODE
+Tarikh : 31 Januari 2024 - 1 Februari 2024 (2 HARI)
+Masa : 9.00 am - 4.30pm
+Lokasi : Makmal Unit Analisis Tradisional dan Kosmetik (HMT), Blok I
+Kategori CPD : A3 - 10 mata
+Penceramah : Agilent Technologies</t>
+  </si>
+  <si>
+    <t>User Training Ujian Pengecaian Bentuk Dosej Susulan Maklumbalas Dari MHRA (Medicines And Healthcare Products Regulatory Agency)</t>
+  </si>
+  <si>
+    <t>9.30AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Makmal Unit Analisis Tradisional dan Kosmetik (HMT), Blok I</t>
+  </si>
+  <si>
+    <t>USER TRAINING UJIAN PENGECAIAN BENTUK DOSEJ SUSULAN MAKLUMBALAS DARI MHRA (MEDICINES AND HEALTHCARE PRODUCTS REGULATORY 
+AGENCY)
+Tarikh : 2 MEI 2024 (1 JAM)
+Masa : 9.30 AM – 10.30 AM
+Lokasi : Makmal Unit Analisis Tradisional dan Kosmetik (HMT), Blok I
+Kategori CPD : A4 - 1 mata</t>
+  </si>
+  <si>
+    <t>User Training Pemerhatian Dan Penentuan Rupa Bentuk Fizikal Produk Tradisional</t>
+  </si>
+  <si>
+    <t>USER TRAINING PEMERHATIAN DAN PENENTUAN RUPA BENTUK FIZIKAL PRODUK TRADISIONAL 
+Tarikh : 7 FEBRUARI 2024 (1 JAM)
+Masa : 9.00 AM – 10 AM
+Lokasi : Makmal Unit Analisis Tradisional dan Kosmetik (HMT), Blok I
+Kategori CPD : A4 - 1 mata</t>
+  </si>
+  <si>
+    <t>Unit Analisis Tradisional</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +536,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -508,11 +631,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -603,9 +723,6 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -630,6 +747,36 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,6 +794,21 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,643 +1125,1097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CC750-9B06-43E3-97F8-680F73840EC5}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
-    <col min="4" max="6" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="8" customWidth="1"/>
-    <col min="8" max="11" width="12.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="6" customWidth="1"/>
+    <col min="4" max="6" width="12.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="7" customWidth="1"/>
+    <col min="8" max="11" width="12.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21" style="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-    </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>45323</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>45351</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:12" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>45323</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>45351</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>2</v>
       </c>
-      <c r="K4" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="31" t="s">
+      <c r="K4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:12" s="15" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>45345</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <v>1</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="31" t="s">
+      <c r="K5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="9" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:12" s="8" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>45343</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27">
         <v>1</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="31" t="s">
+      <c r="K6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="9" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:12" s="8" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>45359</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27">
         <v>1</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="31" t="s">
+      <c r="K7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:12" s="8" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>45331</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28">
+      <c r="I8" s="27"/>
+      <c r="J8" s="27">
         <v>1</v>
       </c>
-      <c r="K8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:12" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>45358</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <v>1</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="31" t="s">
+      <c r="K9" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:12" s="8" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>45352</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28">
+      <c r="I10" s="27"/>
+      <c r="J10" s="27">
         <v>1</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="34" t="s">
+      <c r="K10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:12" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="25">
         <v>45359</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28">
+      <c r="I11" s="27"/>
+      <c r="J11" s="27">
         <v>1</v>
       </c>
-      <c r="K11" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="34" t="s">
+      <c r="K11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:12" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="26" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="27">
         <v>10</v>
       </c>
-      <c r="K12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="34" t="s">
+      <c r="K12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>45345</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27">
         <v>1</v>
       </c>
-      <c r="K13" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="34" t="s">
+      <c r="K13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>45338</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="H14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="I14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="27">
         <v>2</v>
       </c>
-      <c r="K14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="31" t="s">
+      <c r="K14" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="25">
         <v>45351</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="I15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="27">
         <v>2</v>
       </c>
-      <c r="K15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="31" t="s">
+      <c r="K15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>45373</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27">
         <v>1</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="31" t="s">
+      <c r="K16" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:12" s="8" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="35">
         <v>45314</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="34">
         <v>4</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="40" t="s">
+      <c r="K17" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="16" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:12" s="15" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>45336</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>1</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="15" t="s">
+      <c r="K18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="35">
+        <v>45358</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="34">
+        <v>1</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35">
+        <v>45475</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="34">
+        <v>4</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="45" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42">
+        <v>45351</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="41">
+        <v>1</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35">
+        <v>45324</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="34">
+        <v>1</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" s="44" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35">
+        <v>45372</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="34">
+        <v>1</v>
+      </c>
+      <c r="K23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="44" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35">
+        <v>45322</v>
+      </c>
+      <c r="D24" s="57">
+        <v>45323</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="34">
+        <v>10</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="44" customFormat="1" ht="107.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35">
+        <v>45414</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="34">
+        <v>1</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35">
+        <v>45329</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="34">
+        <v>1</v>
+      </c>
+      <c r="K26" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="46"/>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="46"/>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="46"/>
+    </row>
+    <row r="31" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="46"/>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="46"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="46"/>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="46"/>
+    </row>
+    <row r="37" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="46"/>
+    </row>
+    <row r="38" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1631,8 +2247,16 @@
     <hyperlink ref="K16" r:id="rId14" xr:uid="{732AFAB6-1344-4ADF-9160-DD95EC909DA2}"/>
     <hyperlink ref="K17" r:id="rId15" xr:uid="{E3B47E28-187F-4B52-9AA8-304003AB8138}"/>
     <hyperlink ref="K18" r:id="rId16" xr:uid="{B32776DA-EA95-4E51-9BE6-43FE024A5761}"/>
+    <hyperlink ref="K19" r:id="rId17" xr:uid="{C2C9FF73-741D-44F7-8F00-5DD09194614E}"/>
+    <hyperlink ref="K20" r:id="rId18" xr:uid="{4900DC4A-7B33-4CE4-B312-02FCAAC028C8}"/>
+    <hyperlink ref="K21" r:id="rId19" xr:uid="{3E9A9850-B5C9-43C7-BAC8-FD60B5B52405}"/>
+    <hyperlink ref="K22" r:id="rId20" xr:uid="{83F76B58-5866-472C-BB5D-FFE6D1508F0F}"/>
+    <hyperlink ref="K23" r:id="rId21" xr:uid="{333080B7-5B45-4C95-B250-F836A79FD288}"/>
+    <hyperlink ref="K24" r:id="rId22" xr:uid="{2B703C6C-DB04-4E79-B854-9A5B21130984}"/>
+    <hyperlink ref="K25" r:id="rId23" xr:uid="{FA28C231-1B97-4E84-A25F-B95F83CBBB48}"/>
+    <hyperlink ref="K26" r:id="rId24" xr:uid="{E3AE32A6-8711-4956-AFE3-3FFF4EBE69FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Desktop/Amir/mycpd/Mycpd Record.xlsx
+++ b/Desktop/Amir/mycpd/Mycpd Record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\mycpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFBCFB6-2BB7-4125-9D17-2CAC95D6C70E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76614627-77CB-44D5-8791-60AF24D767DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10515" windowHeight="4470" xr2:uid="{754482A3-6E63-42E2-BFFD-94407F2A2A68}"/>
   </bookViews>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,24 +653,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -747,15 +729,6 @@
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -765,14 +738,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -795,20 +774,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,9 +1097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0CC750-9B06-43E3-97F8-680F73840EC5}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,46 +1110,46 @@
     <col min="4" max="6" width="12.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="7" customWidth="1"/>
     <col min="8" max="11" width="12.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21" style="46" customWidth="1"/>
+    <col min="12" max="12" width="21" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1192,850 +1162,850 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="13">
         <v>45323</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>45351</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <v>45323</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="20">
         <v>45351</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <v>2</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="30" t="s">
+      <c r="K4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="15" customFormat="1" ht="96" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:12" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <v>45345</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="21">
         <v>1</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="8" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="33">
         <v>45343</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="27" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27">
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
         <v>1</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="30" t="s">
+      <c r="K6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="8" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="19">
         <v>45359</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
         <v>1</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="30" t="s">
+      <c r="K7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="8" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <v>45331</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27">
+      <c r="I8" s="21"/>
+      <c r="J8" s="21">
         <v>1</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="30" t="s">
+      <c r="K8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="8" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <v>45358</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="21">
         <v>1</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="30" t="s">
+      <c r="K9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="8" customFormat="1" ht="41.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <v>45352</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27">
+      <c r="I10" s="21"/>
+      <c r="J10" s="21">
         <v>1</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="30" t="s">
+      <c r="K10" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="8" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="19">
         <v>45359</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
         <v>1</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="30" t="s">
+      <c r="K11" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="8" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="21">
         <v>10</v>
       </c>
-      <c r="K12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="30" t="s">
+      <c r="K12" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <v>45345</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
         <v>1</v>
       </c>
-      <c r="K13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>45338</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="21">
         <v>2</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="30" t="s">
+      <c r="K14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="19">
         <v>45351</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="21">
         <v>2</v>
       </c>
-      <c r="K15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="30" t="s">
+      <c r="K15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="24" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="19">
         <v>45373</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21">
         <v>1</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="30" t="s">
+      <c r="K16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="29">
         <v>45314</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="H17" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="28">
         <v>4</v>
       </c>
-      <c r="K17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="38" t="s">
+      <c r="K17" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="32" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="15" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="29">
         <v>45336</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="28">
         <v>1</v>
       </c>
-      <c r="K18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="14" t="s">
+      <c r="K18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:12" s="35" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="29">
         <v>45358</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="34" t="s">
+      <c r="I19" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="28">
         <v>1</v>
       </c>
-      <c r="K19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="K19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="35">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29">
         <v>45475</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="60" t="s">
+      <c r="H20" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="28">
         <v>4</v>
       </c>
-      <c r="K20" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="61" t="s">
+      <c r="K20" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="42" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="45" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+    <row r="21" spans="1:12" s="36" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42">
+      <c r="B21" s="28"/>
+      <c r="C21" s="29">
         <v>45351</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="28">
         <v>1</v>
       </c>
-      <c r="K21" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="49" t="s">
+      <c r="K21" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L21" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:12" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="35">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29">
         <v>45324</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="28">
         <v>1</v>
       </c>
-      <c r="K22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="1:12" s="44" customFormat="1" ht="99" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="K22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="40"/>
+    </row>
+    <row r="23" spans="1:12" s="35" customFormat="1" ht="99" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="35">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29">
         <v>45372</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="34">
+      <c r="J23" s="28">
         <v>1</v>
       </c>
-      <c r="K23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L23" s="38" t="s">
+      <c r="K23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="44" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:12" s="35" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29">
         <v>45322</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="38">
         <v>45323</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="34">
+      <c r="J24" s="28">
         <v>10</v>
       </c>
-      <c r="K24" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L24" s="38" t="s">
+      <c r="K24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="107.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:12" s="35" customFormat="1" ht="107.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29">
         <v>45414</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="34">
+      <c r="J25" s="28">
         <v>1</v>
       </c>
-      <c r="K25" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L25" s="38" t="s">
+      <c r="K25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:12" s="35" customFormat="1" ht="74.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29">
         <v>45329</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="36" t="s">
+      <c r="G26" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="J26" s="34">
+      <c r="J26" s="28">
         <v>1</v>
       </c>
-      <c r="K26" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="38" t="s">
+      <c r="K26" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="32" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="6"/>
@@ -2047,9 +2017,9 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="46"/>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
@@ -2061,9 +2031,9 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="46"/>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="6"/>
@@ -2075,9 +2045,9 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="46"/>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -2089,9 +2059,9 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="46"/>
-    </row>
-    <row r="31" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>
@@ -2103,9 +2073,9 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="46"/>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
@@ -2117,9 +2087,9 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="46"/>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
@@ -2131,9 +2101,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="46"/>
-    </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
@@ -2145,9 +2115,9 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="46"/>
-    </row>
-    <row r="35" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
@@ -2159,9 +2129,9 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="46"/>
-    </row>
-    <row r="36" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
@@ -2173,9 +2143,9 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="46"/>
-    </row>
-    <row r="37" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="6"/>
@@ -2187,9 +2157,9 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="46"/>
-    </row>
-    <row r="38" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="6"/>
@@ -2201,9 +2171,9 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="46"/>
-    </row>
-    <row r="39" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
@@ -2215,7 +2185,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="46"/>
+      <c r="L39" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
